--- a/Portfolio/Test Results/Indoor/IndoorTiming.xlsx
+++ b/Portfolio/Test Results/Indoor/IndoorTiming.xlsx
@@ -469,9 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
